--- a/data/gsw_box_score_team_playoffs_stats.xlsx
+++ b/data/gsw_box_score_team_playoffs_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,6 +788,214 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>80</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>26</v>
+      </c>
+      <c r="R4" t="n">
+        <v>33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" t="n">
+        <v>15</v>
+      </c>
+      <c r="W4" t="n">
+        <v>18</v>
+      </c>
+      <c r="X4" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>39</v>
+      </c>
+      <c r="H5" t="n">
+        <v>86</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="M5" t="n">
+        <v>16</v>
+      </c>
+      <c r="N5" t="n">
+        <v>20</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>36</v>
+      </c>
+      <c r="R5" t="n">
+        <v>47</v>
+      </c>
+      <c r="S5" t="n">
+        <v>21</v>
+      </c>
+      <c r="T5" t="n">
+        <v>9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>10</v>
+      </c>
+      <c r="W5" t="n">
+        <v>17</v>
+      </c>
+      <c r="X5" t="n">
+        <v>109</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gsw_box_score_team_playoffs_stats.xlsx
+++ b/data/gsw_box_score_team_playoffs_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,6 +996,422 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>34</v>
+      </c>
+      <c r="H6" t="n">
+        <v>86</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>28</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>36</v>
+      </c>
+      <c r="R6" t="n">
+        <v>51</v>
+      </c>
+      <c r="S6" t="n">
+        <v>19</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>14</v>
+      </c>
+      <c r="W6" t="n">
+        <v>17</v>
+      </c>
+      <c r="X6" t="n">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>39</v>
+      </c>
+      <c r="H7" t="n">
+        <v>90</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>45</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>45</v>
+      </c>
+      <c r="S7" t="n">
+        <v>26</v>
+      </c>
+      <c r="T7" t="n">
+        <v>9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>10</v>
+      </c>
+      <c r="W7" t="n">
+        <v>21</v>
+      </c>
+      <c r="X7" t="n">
+        <v>104</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>38</v>
+      </c>
+      <c r="H8" t="n">
+        <v>77</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="M8" t="n">
+        <v>19</v>
+      </c>
+      <c r="N8" t="n">
+        <v>31</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="P8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>41</v>
+      </c>
+      <c r="S8" t="n">
+        <v>18</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>13</v>
+      </c>
+      <c r="W8" t="n">
+        <v>21</v>
+      </c>
+      <c r="X8" t="n">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>36</v>
+      </c>
+      <c r="H9" t="n">
+        <v>86</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="J9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>46</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>34</v>
+      </c>
+      <c r="S9" t="n">
+        <v>27</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>22</v>
+      </c>
+      <c r="X9" t="n">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gsw_box_score_team_playoffs_stats.xlsx
+++ b/data/gsw_box_score_team_playoffs_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1412,6 +1412,214 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>43</v>
+      </c>
+      <c r="H10" t="n">
+        <v>103</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="M10" t="n">
+        <v>15</v>
+      </c>
+      <c r="N10" t="n">
+        <v>22</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>24</v>
+      </c>
+      <c r="R10" t="n">
+        <v>49</v>
+      </c>
+      <c r="S10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>14</v>
+      </c>
+      <c r="W10" t="n">
+        <v>27</v>
+      </c>
+      <c r="X10" t="n">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>43</v>
+      </c>
+      <c r="H11" t="n">
+        <v>78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="M11" t="n">
+        <v>32</v>
+      </c>
+      <c r="N11" t="n">
+        <v>38</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>31</v>
+      </c>
+      <c r="R11" t="n">
+        <v>39</v>
+      </c>
+      <c r="S11" t="n">
+        <v>23</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>7</v>
+      </c>
+      <c r="V11" t="n">
+        <v>12</v>
+      </c>
+      <c r="W11" t="n">
+        <v>22</v>
+      </c>
+      <c r="X11" t="n">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gsw_box_score_team_playoffs_stats.xlsx
+++ b/data/gsw_box_score_team_playoffs_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,6 +1620,422 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>35</v>
+      </c>
+      <c r="H12" t="n">
+        <v>78</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12</v>
+      </c>
+      <c r="K12" t="n">
+        <v>30</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>33</v>
+      </c>
+      <c r="N12" t="n">
+        <v>46</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>46</v>
+      </c>
+      <c r="S12" t="n">
+        <v>23</v>
+      </c>
+      <c r="T12" t="n">
+        <v>12</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>18</v>
+      </c>
+      <c r="X12" t="n">
+        <v>115</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>37</v>
+      </c>
+      <c r="H13" t="n">
+        <v>90</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>49</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="M13" t="n">
+        <v>18</v>
+      </c>
+      <c r="N13" t="n">
+        <v>22</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="P13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>42</v>
+      </c>
+      <c r="S13" t="n">
+        <v>26</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6</v>
+      </c>
+      <c r="V13" t="n">
+        <v>16</v>
+      </c>
+      <c r="W13" t="n">
+        <v>30</v>
+      </c>
+      <c r="X13" t="n">
+        <v>107</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>39</v>
+      </c>
+      <c r="H14" t="n">
+        <v>82</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18</v>
+      </c>
+      <c r="K14" t="n">
+        <v>43</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>35</v>
+      </c>
+      <c r="R14" t="n">
+        <v>38</v>
+      </c>
+      <c r="S14" t="n">
+        <v>24</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>14</v>
+      </c>
+      <c r="X14" t="n">
+        <v>103</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>34</v>
+      </c>
+      <c r="H15" t="n">
+        <v>84</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>18</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="P15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>38</v>
+      </c>
+      <c r="R15" t="n">
+        <v>52</v>
+      </c>
+      <c r="S15" t="n">
+        <v>14</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>11</v>
+      </c>
+      <c r="W15" t="n">
+        <v>14</v>
+      </c>
+      <c r="X15" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-14</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gsw_box_score_team_playoffs_stats.xlsx
+++ b/data/gsw_box_score_team_playoffs_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2036,6 +2036,214 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>34</v>
+      </c>
+      <c r="H16" t="n">
+        <v>87</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="J16" t="n">
+        <v>18</v>
+      </c>
+      <c r="K16" t="n">
+        <v>42</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="P16" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>33</v>
+      </c>
+      <c r="R16" t="n">
+        <v>51</v>
+      </c>
+      <c r="S16" t="n">
+        <v>26</v>
+      </c>
+      <c r="T16" t="n">
+        <v>10</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12</v>
+      </c>
+      <c r="W16" t="n">
+        <v>18</v>
+      </c>
+      <c r="X16" t="n">
+        <v>99</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>34</v>
+      </c>
+      <c r="H17" t="n">
+        <v>86</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="P17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>29</v>
+      </c>
+      <c r="R17" t="n">
+        <v>41</v>
+      </c>
+      <c r="S17" t="n">
+        <v>19</v>
+      </c>
+      <c r="T17" t="n">
+        <v>7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>6</v>
+      </c>
+      <c r="V17" t="n">
+        <v>16</v>
+      </c>
+      <c r="W17" t="n">
+        <v>21</v>
+      </c>
+      <c r="X17" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gsw_box_score_team_playoffs_stats.xlsx
+++ b/data/gsw_box_score_team_playoffs_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2244,6 +2244,214 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>34</v>
+      </c>
+      <c r="H18" t="n">
+        <v>76</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>32</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16</v>
+      </c>
+      <c r="N18" t="n">
+        <v>25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>32</v>
+      </c>
+      <c r="R18" t="n">
+        <v>42</v>
+      </c>
+      <c r="S18" t="n">
+        <v>23</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>17</v>
+      </c>
+      <c r="W18" t="n">
+        <v>16</v>
+      </c>
+      <c r="X18" t="n">
+        <v>93</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-24</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>44</v>
+      </c>
+      <c r="H19" t="n">
+        <v>87</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="J19" t="n">
+        <v>16</v>
+      </c>
+      <c r="K19" t="n">
+        <v>37</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="M19" t="n">
+        <v>13</v>
+      </c>
+      <c r="N19" t="n">
+        <v>20</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>28</v>
+      </c>
+      <c r="R19" t="n">
+        <v>39</v>
+      </c>
+      <c r="S19" t="n">
+        <v>33</v>
+      </c>
+      <c r="T19" t="n">
+        <v>10</v>
+      </c>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>12</v>
+      </c>
+      <c r="W19" t="n">
+        <v>22</v>
+      </c>
+      <c r="X19" t="n">
+        <v>117</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gsw_box_score_team_playoffs_stats.xlsx
+++ b/data/gsw_box_score_team_playoffs_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2452,6 +2452,214 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>36</v>
+      </c>
+      <c r="H20" t="n">
+        <v>82</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="J20" t="n">
+        <v>13</v>
+      </c>
+      <c r="K20" t="n">
+        <v>34</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="M20" t="n">
+        <v>17</v>
+      </c>
+      <c r="N20" t="n">
+        <v>21</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>31</v>
+      </c>
+      <c r="R20" t="n">
+        <v>44</v>
+      </c>
+      <c r="S20" t="n">
+        <v>28</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>23</v>
+      </c>
+      <c r="X20" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>35</v>
+      </c>
+      <c r="H21" t="n">
+        <v>81</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" t="n">
+        <v>23</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17</v>
+      </c>
+      <c r="N21" t="n">
+        <v>21</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>24</v>
+      </c>
+      <c r="R21" t="n">
+        <v>36</v>
+      </c>
+      <c r="S21" t="n">
+        <v>21</v>
+      </c>
+      <c r="T21" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7</v>
+      </c>
+      <c r="V21" t="n">
+        <v>14</v>
+      </c>
+      <c r="W21" t="n">
+        <v>24</v>
+      </c>
+      <c r="X21" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gsw_box_score_team_playoffs_stats.xlsx
+++ b/data/gsw_box_score_team_playoffs_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,6 +2660,214 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>39</v>
+      </c>
+      <c r="H22" t="n">
+        <v>79</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K22" t="n">
+        <v>34</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="M22" t="n">
+        <v>23</v>
+      </c>
+      <c r="N22" t="n">
+        <v>26</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>32</v>
+      </c>
+      <c r="R22" t="n">
+        <v>38</v>
+      </c>
+      <c r="S22" t="n">
+        <v>22</v>
+      </c>
+      <c r="T22" t="n">
+        <v>9</v>
+      </c>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>19</v>
+      </c>
+      <c r="W22" t="n">
+        <v>23</v>
+      </c>
+      <c r="X22" t="n">
+        <v>117</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>37</v>
+      </c>
+      <c r="H23" t="n">
+        <v>85</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>27</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="M23" t="n">
+        <v>28</v>
+      </c>
+      <c r="N23" t="n">
+        <v>33</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="P23" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>24</v>
+      </c>
+      <c r="R23" t="n">
+        <v>38</v>
+      </c>
+      <c r="S23" t="n">
+        <v>18</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>15</v>
+      </c>
+      <c r="W23" t="n">
+        <v>25</v>
+      </c>
+      <c r="X23" t="n">
+        <v>110</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gsw_box_score_team_playoffs_stats.xlsx
+++ b/data/gsw_box_score_team_playoffs_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2868,6 +2868,214 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>39</v>
+      </c>
+      <c r="H24" t="n">
+        <v>90</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11</v>
+      </c>
+      <c r="K24" t="n">
+        <v>39</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="M24" t="n">
+        <v>21</v>
+      </c>
+      <c r="N24" t="n">
+        <v>30</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>40</v>
+      </c>
+      <c r="S24" t="n">
+        <v>21</v>
+      </c>
+      <c r="T24" t="n">
+        <v>14</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>17</v>
+      </c>
+      <c r="W24" t="n">
+        <v>21</v>
+      </c>
+      <c r="X24" t="n">
+        <v>110</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>240:00</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>49</v>
+      </c>
+      <c r="H25" t="n">
+        <v>78</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="J25" t="n">
+        <v>13</v>
+      </c>
+      <c r="K25" t="n">
+        <v>31</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="M25" t="n">
+        <v>10</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>33</v>
+      </c>
+      <c r="R25" t="n">
+        <v>39</v>
+      </c>
+      <c r="S25" t="n">
+        <v>36</v>
+      </c>
+      <c r="T25" t="n">
+        <v>11</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>20</v>
+      </c>
+      <c r="W25" t="n">
+        <v>19</v>
+      </c>
+      <c r="X25" t="n">
+        <v>121</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
